--- a/Macumber_Coursera_Capstone_Table03.xlsx
+++ b/Macumber_Coursera_Capstone_Table03.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I dunno---Andrew\FactoryFloor\Repositories\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E090708D-7CF0-4203-BB82-8C9900A4717D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70CA82B-3F13-4A92-BAA1-5C843B2615A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="10785" yWindow="60" windowWidth="9495" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stations_VenueCounts_Clustered_" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,7 +565,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,6 +589,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -945,11 +948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,37 +1013,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="5">
         <v>7</v>
       </c>
       <c r="E2" s="5">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="F2" s="5">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="G2" s="5">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="H2" s="5">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I2" s="5">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J2" s="7">
-        <v>44.4</v>
+        <v>44.9</v>
       </c>
       <c r="K2" s="5">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="L2" s="5">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1048,37 +1051,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="F3" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>17.5</v>
+        <v>1.3</v>
+      </c>
+      <c r="G3" s="7">
+        <v>22</v>
       </c>
       <c r="H3" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="I3" s="7">
-        <v>15</v>
-      </c>
-      <c r="J3" s="5">
-        <v>14</v>
+        <v>3.3</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="J3" s="7">
+        <v>23.4</v>
       </c>
       <c r="K3" s="7">
-        <v>41</v>
+        <v>31.1</v>
       </c>
       <c r="L3" s="5">
-        <v>4.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1086,37 +1089,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
-        <v>5.7</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.3</v>
+        <v>2.8</v>
+      </c>
+      <c r="F4" s="9">
+        <v>6.8</v>
       </c>
       <c r="G4" s="7">
-        <v>22.1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="I4" s="5">
-        <v>5.3</v>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7.2</v>
       </c>
       <c r="J4" s="7">
-        <v>23.4</v>
+        <v>18.2</v>
       </c>
       <c r="K4" s="7">
-        <v>31.1</v>
-      </c>
-      <c r="L4" s="5">
-        <v>8</v>
+        <v>15.6</v>
+      </c>
+      <c r="L4" s="7">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1127,34 +1130,34 @@
         <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>64</v>
-      </c>
       <c r="G5" s="5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5">
         <v>3</v>
       </c>
       <c r="I5" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="5">
-        <v>10</v>
-      </c>
-      <c r="K5" s="5">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="K5" s="7">
+        <v>52</v>
       </c>
       <c r="L5" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1162,37 +1165,37 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="5">
-        <v>2.6</v>
-      </c>
       <c r="F6" s="5">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>18.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="K6" s="5">
-        <v>15.6</v>
-      </c>
-      <c r="L6" s="7">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="K6" s="7">
+        <v>73</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1209,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>68</v>
       </c>
       <c r="G7" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" s="5">
+        <v>7</v>
+      </c>
+      <c r="K7" s="9">
         <v>4</v>
       </c>
-      <c r="K7" s="7">
-        <v>73</v>
-      </c>
       <c r="L7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1259,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="6">
         <v>22</v>

--- a/Macumber_Coursera_Capstone_Table03.xlsx
+++ b/Macumber_Coursera_Capstone_Table03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I dunno---Andrew\FactoryFloor\Repositories\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70CA82B-3F13-4A92-BAA1-5C843B2615A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B335E-5521-4895-B2E6-D8ADCA0B23FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="60" windowWidth="9495" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11310" yWindow="645" windowWidth="9495" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stations_VenueCounts_Clustered_" sheetId="1" r:id="rId1"/>
@@ -949,223 +949,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="5" customWidth="1"/>
-    <col min="9" max="10" width="13.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="5" customWidth="1"/>
+    <col min="10" max="11" width="13.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="C3" s="5">
         <v>10</v>
-      </c>
-      <c r="C2" s="5">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2.9</v>
-      </c>
-      <c r="F2" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="5">
-        <v>17.5</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="I2" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="J2" s="7">
-        <v>44.9</v>
-      </c>
-      <c r="K2" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="L2" s="5">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
       </c>
       <c r="E3" s="5">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="J3" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K3" s="7">
+        <v>44.7</v>
+      </c>
+      <c r="L3" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="H4" s="7">
+        <v>19.2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="K4" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="L4" s="7">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="G5" s="9">
         <v>1.3</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H5" s="7">
         <v>22</v>
       </c>
-      <c r="H3" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="I3" s="9">
-        <v>5.3</v>
-      </c>
-      <c r="J3" s="7">
-        <v>23.4</v>
-      </c>
-      <c r="K3" s="7">
-        <v>31.1</v>
-      </c>
-      <c r="L3" s="5">
-        <v>8</v>
+      <c r="I5" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="J5" s="9">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="M5" s="9">
+        <v>7.7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="F4" s="9">
-        <v>6.8</v>
-      </c>
-      <c r="G4" s="7">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="H4" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="I4" s="9">
-        <v>7.2</v>
-      </c>
-      <c r="J4" s="7">
-        <v>18.2</v>
-      </c>
-      <c r="K4" s="7">
-        <v>15.6</v>
-      </c>
-      <c r="L4" s="7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>19</v>
-      </c>
-      <c r="H5" s="5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5">
-        <v>2</v>
-      </c>
-      <c r="J5" s="5">
-        <v>16</v>
-      </c>
-      <c r="K5" s="7">
-        <v>52</v>
-      </c>
-      <c r="L5" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1174,103 +1133,144 @@
         <v>0</v>
       </c>
       <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5">
         <v>2</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="K6" s="5">
+        <v>16</v>
+      </c>
+      <c r="L6" s="7">
+        <v>52</v>
+      </c>
+      <c r="M6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
         <v>19</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
         <v>4</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L7" s="7">
         <v>73</v>
       </c>
-      <c r="L6" s="9">
+      <c r="M7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
         <v>68</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H8" s="5">
         <v>9</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I8" s="5">
         <v>3</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J8" s="5">
         <v>5</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K8" s="5">
         <v>7</v>
       </c>
-      <c r="K7" s="9">
+      <c r="L8" s="9">
         <v>4</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M8" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
         <v>24</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G9" s="8">
         <v>23</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H9" s="6">
         <v>9</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I9" s="6">
         <v>3</v>
       </c>
-      <c r="I8" s="6">
-        <v>8</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="J9" s="6">
+        <v>7</v>
+      </c>
+      <c r="K9" s="6">
         <v>22</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L9" s="6">
         <v>9</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M9" s="6">
         <v>3</v>
       </c>
     </row>
